--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="C22" s="22" t="n"/>
       <c r="D22" s="11" t="n">
-        <v>5668.068</v>
+        <v>12264</v>
       </c>
       <c r="H22" s="9" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C23" s="22" t="n"/>
       <c r="D23" s="11" t="n">
-        <v>6421.01</v>
+        <v>13894</v>
       </c>
       <c r="H23" s="9" t="n"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" s="22" t="n"/>
       <c r="D24" s="11" t="n">
-        <v>8364.094999999999</v>
+        <v>18098</v>
       </c>
       <c r="H24" s="9" t="n"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C25" s="22" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>9265.521000000001</v>
+        <v>20048</v>
       </c>
       <c r="H25" s="9" t="n"/>
     </row>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRA T.xlsx
+++ b/server/LISTAS/ma/BISAGRA T.xlsx
@@ -748,7 +748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="13" t="n"/>
       <c r="F1" s="13" t="n"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="C22" s="22" t="n"/>
       <c r="D22" s="11" t="n">
-        <v>5668.068</v>
+        <v>12264</v>
       </c>
       <c r="H22" s="9" t="n"/>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C23" s="22" t="n"/>
       <c r="D23" s="11" t="n">
-        <v>6421.01</v>
+        <v>13894</v>
       </c>
       <c r="H23" s="9" t="n"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="C24" s="22" t="n"/>
       <c r="D24" s="11" t="n">
-        <v>8364.094999999999</v>
+        <v>18098</v>
       </c>
       <c r="H24" s="9" t="n"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C25" s="22" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>9265.521000000001</v>
+        <v>20048</v>
       </c>
       <c r="H25" s="9" t="n"/>
     </row>
@@ -901,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
